--- a/docs/画面項目定義書/instance_type_management/instance_type_detail.xlsx
+++ b/docs/画面項目定義書/instance_type_management/instance_type_detail.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\instance_type_management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\instance_type_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AC61B0-4196-411A-A796-D2DEF154427F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CC2145-DC50-4AC1-9162-6534B470DADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="340" windowWidth="19200" windowHeight="9860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16305" yWindow="-6960" windowWidth="16410" windowHeight="14145" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>日本工学院</t>
   </si>
@@ -82,6 +82,20 @@
   </si>
   <si>
     <t>instance_type_detail.html</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>管理者サイドバー</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Ref(管理者サイドバー)</t>
+    <rPh sb="4" eb="7">
+      <t>カンリシャ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -950,17 +964,17 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A9:A13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.76953125" customWidth="1"/>
-    <col min="3" max="3" width="19.76953125" customWidth="1"/>
-    <col min="4" max="4" width="13.40625" customWidth="1"/>
-    <col min="5" max="5" width="29.40625" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">
@@ -1146,10 +1160,14 @@
     </row>
     <row r="14" spans="1:7" ht="18.75" customHeight="1">
       <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
+      <c r="B14" s="29" t="s">
+        <v>19</v>
+      </c>
       <c r="C14" s="30"/>
       <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
+      <c r="E14" s="32" t="s">
+        <v>20</v>
+      </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34"/>
     </row>
@@ -1171,7 +1189,7 @@
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
     </row>
-    <row r="17" spans="1:7" ht="13.25">
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="21"/>
       <c r="B17" s="29"/>
       <c r="C17" s="30"/>
@@ -1180,7 +1198,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="34"/>
     </row>
-    <row r="18" spans="1:7" ht="13.25">
+    <row r="18" spans="1:7" ht="13.5">
       <c r="A18" s="28"/>
       <c r="B18" s="29"/>
       <c r="C18" s="30"/>
@@ -1189,7 +1207,7 @@
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
     </row>
-    <row r="19" spans="1:7" ht="13.25">
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="28"/>
       <c r="B19" s="29"/>
       <c r="C19" s="30"/>
@@ -1198,7 +1216,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:7" ht="13.25">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="28"/>
       <c r="B20" s="29"/>
       <c r="C20" s="30"/>
@@ -1207,7 +1225,7 @@
       <c r="F20" s="33"/>
       <c r="G20" s="34"/>
     </row>
-    <row r="21" spans="1:7" ht="13.25">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="28"/>
       <c r="B21" s="29"/>
       <c r="C21" s="30"/>
@@ -1216,7 +1234,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="34"/>
     </row>
-    <row r="22" spans="1:7" ht="13.25">
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="28"/>
       <c r="B22" s="29"/>
       <c r="C22" s="30"/>
@@ -1225,7 +1243,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:7" ht="13.25">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="28"/>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
@@ -1234,7 +1252,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13.25">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="28"/>
       <c r="B24" s="29"/>
       <c r="C24" s="30"/>
@@ -1243,7 +1261,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:7" ht="13.25">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="28"/>
       <c r="B25" s="29"/>
       <c r="C25" s="30"/>
@@ -1252,7 +1270,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13.25">
+    <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
@@ -1261,7 +1279,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13.25">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
@@ -1270,7 +1288,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13.25">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
@@ -1279,7 +1297,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13.25">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
